--- a/nriss-patch-1/ig/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/nriss-patch-1/ig/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:50:06+00:00</t>
+    <t>2024-07-02T14:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
